--- a/biology/Médecine/DOCK2/DOCK2.xlsx
+++ b/biology/Médecine/DOCK2/DOCK2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le DOCK2 (pour « Dedicator of cytokinesis 2 ») est une protéine, membre de la famille des DOCKs, dont le gène, DOCK2, est situé sur le chromosome 5 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle permet la migration des lymphocytes[5] et des cellules dendritiques de type plasmacytoïde[6], intervenant dans la sécrétion d'interférons de type 1[7]. Elle active la protéine Rac, et par ce biais, les lymphocytes NK[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle permet la migration des lymphocytes et des cellules dendritiques de type plasmacytoïde, intervenant dans la sécrétion d'interférons de type 1. Elle active la protéine Rac, et par ce biais, les lymphocytes NK.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation du gène entraîne une immunodéficience congénitale combinée (intéressant les lymphocytes B et T) et sévère[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation du gène entraîne une immunodéficience congénitale combinée (intéressant les lymphocytes B et T) et sévère.
 </t>
         </is>
       </c>
